--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84365-Reviews-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Culver-City.h6927.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529205098515&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=11992e00-aa54-4b8c-85df-ae87338dab97&amp;mctc=9&amp;exp_dp=120&amp;exp_ts=1529205099131&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,652 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r513761545-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84365</t>
+  </si>
+  <si>
+    <t>513761545</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completely overpriced </t>
+  </si>
+  <si>
+    <t>The only reason we booked this place is because it was the cheapest in the area. It was a dingy motel with crusty bits on the carpet in our room. There were also stains on the comforter. When we arrived early evening there was parking but when we got back from dinner I had to park half on the sidewalk which I wasn't too happy about doing but a hotel employee said it was ok. The 'breakfast' is a bit of a joke. It's practically non existent. I honestly would price this place at $20 a night and not the $125 we paid! Spend the extra $80-$100 and stay in a 4 star place elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The only reason we booked this place is because it was the cheapest in the area. It was a dingy motel with crusty bits on the carpet in our room. There were also stains on the comforter. When we arrived early evening there was parking but when we got back from dinner I had to park half on the sidewalk which I wasn't too happy about doing but a hotel employee said it was ok. The 'breakfast' is a bit of a joke. It's practically non existent. I honestly would price this place at $20 a night and not the $125 we paid! Spend the extra $80-$100 and stay in a 4 star place elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r499186965-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499186965</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Not great but not bad either...place to sleep!</t>
+  </si>
+  <si>
+    <t>Well it wasn't the best hotel I've ever stayed at and wasn't the worst. The parking was very limited and if you found a spot it was a tight squeeze. The AC in the room worked fine but had a loud noise when it started. The hotel staff was pleasant. The room was a room to sleep and shower. We only stayed one night so, there are some parts to the hotel that are dirty but I wasn't there to explore the hotel neither. My only concern was the door, although there was a deadbolt, there was a security latch that didn't quite work as well as I would have liked it to cause if you accidentally pushed on the door with the latch it pulled the frame off the wall a little. That was a little scary. I expected the hotel to a little worn and it was. If you just need a place to sleep for a night then yes by all means get a room but if your looking for a hotel with pool, lot of parking, full breakfast and a more contemporary look then go somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>Well it wasn't the best hotel I've ever stayed at and wasn't the worst. The parking was very limited and if you found a spot it was a tight squeeze. The AC in the room worked fine but had a loud noise when it started. The hotel staff was pleasant. The room was a room to sleep and shower. We only stayed one night so, there are some parts to the hotel that are dirty but I wasn't there to explore the hotel neither. My only concern was the door, although there was a deadbolt, there was a security latch that didn't quite work as well as I would have liked it to cause if you accidentally pushed on the door with the latch it pulled the frame off the wall a little. That was a little scary. I expected the hotel to a little worn and it was. If you just need a place to sleep for a night then yes by all means get a room but if your looking for a hotel with pool, lot of parking, full breakfast and a more contemporary look then go somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r497689426-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497689426</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>horrible, I was cheated, and never again, rude</t>
+  </si>
+  <si>
+    <t>horrible, I was cheated with the price of the hotel, but it was 10 PM and I had no choice. The manager barely spoke English and very rude, The room was supposed to be non-smoking but it stunk. The shudders were broken and tapped with masking tape, the window barely move. The water in the shower was barely warm. There were people going in and out of the rooms all night. I complained to Rodeway Inn about what else he was running at this hotel. The parking was the pits and he ran out of coffee. When I complained in the morning the manager could care less, or maybe he did not understand English. He said he would charge me if I did not return the plastic cards in the morning. Do not stay here!!! I will never again. Now I need to go to my credit card company and settle the matter and I complained to Rodeway Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>horrible, I was cheated with the price of the hotel, but it was 10 PM and I had no choice. The manager barely spoke English and very rude, The room was supposed to be non-smoking but it stunk. The shudders were broken and tapped with masking tape, the window barely move. The water in the shower was barely warm. There were people going in and out of the rooms all night. I complained to Rodeway Inn about what else he was running at this hotel. The parking was the pits and he ran out of coffee. When I complained in the morning the manager could care less, or maybe he did not understand English. He said he would charge me if I did not return the plastic cards in the morning. Do not stay here!!! I will never again. Now I need to go to my credit card company and settle the matter and I complained to Rodeway Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r433835116-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>433835116</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Uhhhhh - sketchy place</t>
+  </si>
+  <si>
+    <t>This hotel was quite nasty. The rooms are old and falling apart. The parking areas are so tiny it is crazy hard to get in and out of them and because the hotel is in kind of a sketchy neighborhood, you feel nervous just coming and going from your car or even your room.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r433756389-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>433756389</t>
+  </si>
+  <si>
+    <t>Staff make a difference .</t>
+  </si>
+  <si>
+    <t>needed a local place to stay while work was been done at home. stayed a few days over a three week span. The place is local and very basic but served its purpose. The rooms are clean, but could do with a little touching up. Simple but nice breakfast in the morning was on hand with good coffee. A big asset was the day manager Ron who was very helpful with last minute reservations and also didn't make you wait till check in time if the room was ready. Will stay again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r430729820-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>430729820</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Returning from Hawaii cruise</t>
+  </si>
+  <si>
+    <t>Hard to even give it a "one". Where to begin. At check in they seem disinterested.This is an ancient property and looks it.Very little parking. All on site parking involves driving down a one way alley. If you want to leave you have to reverse out onto a street one of which is very busy. Not enough parking for all so street parking is the solution.A noisy place at all hours with some on site/residents playing a radio with door open. Old, tired, worn linens on the beds. Direct TV would be nice if you cared to stay here longer than the minimum hours to sleep. Even so that shut down and had to be reset one night out of two.Use Choice Hotels often. This place is substandard for any chain at any price point. Don't know how Choice buys into this.Good location to see this interesting area but.....This is a shabby property.They do have a nice 20 by 20 lawn out front.I saw a review that said something similar to my opinion. Sorry I didn't research first.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hard to even give it a "one". Where to begin. At check in they seem disinterested.This is an ancient property and looks it.Very little parking. All on site parking involves driving down a one way alley. If you want to leave you have to reverse out onto a street one of which is very busy. Not enough parking for all so street parking is the solution.A noisy place at all hours with some on site/residents playing a radio with door open. Old, tired, worn linens on the beds. Direct TV would be nice if you cared to stay here longer than the minimum hours to sleep. Even so that shut down and had to be reset one night out of two.Use Choice Hotels often. This place is substandard for any chain at any price point. Don't know how Choice buys into this.Good location to see this interesting area but.....This is a shabby property.They do have a nice 20 by 20 lawn out front.I saw a review that said something similar to my opinion. Sorry I didn't research first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r362653124-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>362653124</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rundown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borderline dump, charging 150 a night? Really? Dirty, exposed wires where a light used to be, torn carpets, handle on shower falling off. Just a place you can't get a comfortable feeling staying at. I hope this helps </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r321488540-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>321488540</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Visit in a Vintage Hotel</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights while in the area for a family member's memorial. I chose this area because it was not far from funeral home and my family's home.  Clean little older hotel with amenities (fridge, microwave, granite counter top, tile, crown molding, flat screen, free Wi-Fi, ironing board, hair dryer, simple continental breakfast, air conditioner blows cold!).  Reasonably priced, large room, comfortable bed, security cameras. Woman in office was very accommodating and helped me with directions.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r317902641-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>317902641</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Rundown and no service</t>
+  </si>
+  <si>
+    <t>I made a phone reservation by recommendation of agent, but while I was waiting for confirmation #, check it out on internet and saw bad reviews.  Told the agent, but informed me I couldn't cancel without losing my payment.  As the price was about 185 plus tax and I was to arrive late and leave early, I didn't fight the room.  But when I saw what we got for the price, I took pictures of the bath fan falling from the cieling, bad repairs in the bathroom, burnt carpeting, etc.  Showed the receptionist and requested a discount.  She told me to complain to the booking agent, but with NO apologies.  Never had stayed in a Rodeway before, but after this experience, will never stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I made a phone reservation by recommendation of agent, but while I was waiting for confirmation #, check it out on internet and saw bad reviews.  Told the agent, but informed me I couldn't cancel without losing my payment.  As the price was about 185 plus tax and I was to arrive late and leave early, I didn't fight the room.  But when I saw what we got for the price, I took pictures of the bath fan falling from the cieling, bad repairs in the bathroom, burnt carpeting, etc.  Showed the receptionist and requested a discount.  She told me to complain to the booking agent, but with NO apologies.  Never had stayed in a Rodeway before, but after this experience, will never stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r294381408-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>294381408</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Booked 3 Days, but didn't even stay 1 night!</t>
+  </si>
+  <si>
+    <t>My colleague and I work for a not-for-profit organization, so our budget for our California trip was limited. We stayed at a Choice Hotel near LAX Airport when we first arrived, which was clean and quite nice. We stayed at that hotel for 3 days and we were quite happy with that hotel. The only reason we booked and moved to the Rodeway Inn in Culver City for our remaining 3 days of our trip was because we needed to be close to Santa Monica beach and we thought Rodeway was affordable. Especially having stayed in a Choice Hotel for 3 days upon our arrival, we figured the standard for all Choice Hotels would be the same -- were we ever wrong about that!
+Upon arrival, we checked in around 7:30pm  and the front desk guy was very polite and helpful. He told us about breakfast in the morning and warned us it wasn't anything to write home to mom about. After checking in, we quickly dropped off our bags in our room and raced off to a meeting we had in Santa Monica. 
+We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.)....My colleague and I work for a not-for-profit organization, so our budget for our California trip was limited. We stayed at a Choice Hotel near LAX Airport when we first arrived, which was clean and quite nice. We stayed at that hotel for 3 days and we were quite happy with that hotel. The only reason we booked and moved to the Rodeway Inn in Culver City for our remaining 3 days of our trip was because we needed to be close to Santa Monica beach and we thought Rodeway was affordable. Especially having stayed in a Choice Hotel for 3 days upon our arrival, we figured the standard for all Choice Hotels would be the same -- were we ever wrong about that!Upon arrival, we checked in around 7:30pm  and the front desk guy was very polite and helpful. He told us about breakfast in the morning and warned us it wasn't anything to write home to mom about. After checking in, we quickly dropped off our bags in our room and raced off to a meeting we had in Santa Monica. We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.). After we parked, we went up to our room. I checked the beds for bed bugs and it seemed clean. The beds were made and looked clean.In the meantime, my colleague inspected the bathroom and the rest of the room and found ants in the bathroom (all over the floor and on the toilet) and an unidentified substance splattered all over the walls in the main living area.We quickly called the first Choice Hotel we stayed at to see if they had room. Luckily there was a cancelation that night so they got us back in that hotel for our remaining the 3 day stay in California. We then went downstairs and told the front desk guy we wanted to leave. He told us he could refund us for 2 of the 3 nights we were scheduled to stay, but that he had to charge us for the first night because we were there for more than 2 hours.Now, I get it... hotels probably see people checking in for 2 hours to grab a quick nap or do other activities that may take less than 2 hours. However, when you have a bug problem and the room has an unidentified substance splattered all over the walls, I think you may want to reconsider that policy. Plus, they could have called the other Choice Hotel to confirm we reserved that hotel that night.I told the front desk guy we would give the hotel a bad review because we couldn't get our refund. He didn't seem concerned. I wish I thought of checking Trip Advisor before we booked our accommodations. If you read the 1-star reviews and think that it's an isolated incident and how bad could it really be??? Well, there is a reason why this hotel is so cheap despite being so close to Venice Beach. You really get what you paid for!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My colleague and I work for a not-for-profit organization, so our budget for our California trip was limited. We stayed at a Choice Hotel near LAX Airport when we first arrived, which was clean and quite nice. We stayed at that hotel for 3 days and we were quite happy with that hotel. The only reason we booked and moved to the Rodeway Inn in Culver City for our remaining 3 days of our trip was because we needed to be close to Santa Monica beach and we thought Rodeway was affordable. Especially having stayed in a Choice Hotel for 3 days upon our arrival, we figured the standard for all Choice Hotels would be the same -- were we ever wrong about that!
+Upon arrival, we checked in around 7:30pm  and the front desk guy was very polite and helpful. He told us about breakfast in the morning and warned us it wasn't anything to write home to mom about. After checking in, we quickly dropped off our bags in our room and raced off to a meeting we had in Santa Monica. 
+We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.)....My colleague and I work for a not-for-profit organization, so our budget for our California trip was limited. We stayed at a Choice Hotel near LAX Airport when we first arrived, which was clean and quite nice. We stayed at that hotel for 3 days and we were quite happy with that hotel. The only reason we booked and moved to the Rodeway Inn in Culver City for our remaining 3 days of our trip was because we needed to be close to Santa Monica beach and we thought Rodeway was affordable. Especially having stayed in a Choice Hotel for 3 days upon our arrival, we figured the standard for all Choice Hotels would be the same -- were we ever wrong about that!Upon arrival, we checked in around 7:30pm  and the front desk guy was very polite and helpful. He told us about breakfast in the morning and warned us it wasn't anything to write home to mom about. After checking in, we quickly dropped off our bags in our room and raced off to a meeting we had in Santa Monica. We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.). After we parked, we went up to our room. I checked the beds for bed bugs and it seemed clean. The beds were made and looked clean.In the meantime, my colleague inspected the bathroom and the rest of the room and found ants in the bathroom (all over the floor and on the toilet) and an unidentified substance splattered all over the walls in the main living area.We quickly called the first Choice Hotel we stayed at to see if they had room. Luckily there was a cancelation that night so they got us back in that hotel for our remaining the 3 day stay in California. We then went downstairs and told the front desk guy we wanted to leave. He told us he could refund us for 2 of the 3 nights we were scheduled to stay, but that he had to charge us for the first night because we were there for more than 2 hours.Now, I get it... hotels probably see people checking in for 2 hours to grab a quick nap or do other activities that may take less than 2 hours. However, when you have a bug problem and the room has an unidentified substance splattered all over the walls, I think you may want to reconsider that policy. Plus, they could have called the other Choice Hotel to confirm we reserved that hotel that night.I told the front desk guy we would give the hotel a bad review because we couldn't get our refund. He didn't seem concerned. I wish I thought of checking Trip Advisor before we booked our accommodations. If you read the 1-star reviews and think that it's an isolated incident and how bad could it really be??? Well, there is a reason why this hotel is so cheap despite being so close to Venice Beach. You really get what you paid for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r291258275-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>291258275</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rode Way Inn. Is a great place to stay. Weather you are on holiday or for business. Easy to access any part of LA from the Rode Way Inn. The rooms are very clean and the staff is helpful. Is a walking distance to some of the very good entertainment places in LA. I will stay there the next time I am back in town. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r271694836-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271694836</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>2 miles from beach, most affordable.</t>
+  </si>
+  <si>
+    <t>We generally stay at Comfort Inn or higher levels of Choice Hotels and we knew Rodeway is a lower classification but we were visiting a friend who lives nearby. In this particular hotel, the breakfast was truly "continental" with Little Debbie cinnamon rolls as the highlight. I went in for coffee on two occasions, the first time as I was leaving for a meeting, they were out and I couldn't wait for them to make more. The second at 9:55, wanting a cup before we checked-out, they again were out of coffee and not going to make more as "breakfast was till 10". (Two self-service cappuccino coffee machines were out of service"). The room appeared clean but on close inspection had some cobwebs and the shower curtain rod was about to fall off. The area has a "seedy" feel to it (though most homes are $1 million plus homes) so we took our bikes off our locked bike rack and put them in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We generally stay at Comfort Inn or higher levels of Choice Hotels and we knew Rodeway is a lower classification but we were visiting a friend who lives nearby. In this particular hotel, the breakfast was truly "continental" with Little Debbie cinnamon rolls as the highlight. I went in for coffee on two occasions, the first time as I was leaving for a meeting, they were out and I couldn't wait for them to make more. The second at 9:55, wanting a cup before we checked-out, they again were out of coffee and not going to make more as "breakfast was till 10". (Two self-service cappuccino coffee machines were out of service"). The room appeared clean but on close inspection had some cobwebs and the shower curtain rod was about to fall off. The area has a "seedy" feel to it (though most homes are $1 million plus homes) so we took our bikes off our locked bike rack and put them in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r254761732-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>254761732</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Only Plus is Distance from Venice Beach</t>
+  </si>
+  <si>
+    <t>Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care...Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care about the cleanliness, then I guess this would be an ok place to stay. But I definitely would not stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care...Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care about the cleanliness, then I guess this would be an ok place to stay. But I definitely would not stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r234416127-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234416127</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room. Polite &amp; efficient manager.</t>
+  </si>
+  <si>
+    <t>Sila, the general manager, was great. She helped me with directions and was very polite. The room was spacious and clean. Hot water was slow to heat up and wifi was a little unreliable but overall it was a good place to stay for a night as long as you're not looking for bells &amp; whistles.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r234343218-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234343218</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>This place was a diamond in the rough. At first glance, I have to admit I was not impressed. But I was wrong. The room was super clean, and for being on Washington Blvd., very quiet. It is not far from Santa Monica, Marina del Ray, and Venice Beach. I would stay there again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r174412851-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174412851</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Totally Forgettable...</t>
+  </si>
+  <si>
+    <t>I booked this hotel relying upon the glowing testimonies on their website.  Only when en route in the air did I read what the last few commentators said on Trip  Advisor.  By then, of course, it was too late to change.  So, how was it?  Totally forgetable.  As a recent commentator notes, :You get what you pay for."  But for an average of $105 a night, it wasn't terrible.  The room was clean, the bed fresh- smelling and comfortable (even though the pillows were oddly shaped).  And, the bathroom was adequate - despite the clear presence of mold in some corners and a bathtub surface in serious need of repair.  The air conditioner worked well, but the safe didn't work at all ... and parking our full-sized vehicle was a challenge (actually a real pain).  Breakfast was a joke.  Would I stay there again?  No, but it wouldn't be the end of the world if I did.  And, to be fair, the staff was courteous and polite.  The owners have clearly taken a really bad old property and tried to upgrade it.  They still have a good ways to go, but it's not terrible ... just "totally forgettable."MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I booked this hotel relying upon the glowing testimonies on their website.  Only when en route in the air did I read what the last few commentators said on Trip  Advisor.  By then, of course, it was too late to change.  So, how was it?  Totally forgetable.  As a recent commentator notes, :You get what you pay for."  But for an average of $105 a night, it wasn't terrible.  The room was clean, the bed fresh- smelling and comfortable (even though the pillows were oddly shaped).  And, the bathroom was adequate - despite the clear presence of mold in some corners and a bathtub surface in serious need of repair.  The air conditioner worked well, but the safe didn't work at all ... and parking our full-sized vehicle was a challenge (actually a real pain).  Breakfast was a joke.  Would I stay there again?  No, but it wouldn't be the end of the world if I did.  And, to be fair, the staff was courteous and polite.  The owners have clearly taken a really bad old property and tried to upgrade it.  They still have a good ways to go, but it's not terrible ... just "totally forgettable."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r164217272-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164217272</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 5 nights of our 5 weeks in America. We picked this place because it was relatively cheap and all we really needed was a bed to crash in after long days touring and sightseeing. Our room was ok, yes it had a musty smell but the bed was clean and made for us everyday, the toilet and showers also clean and tidy. The place advertised breakfast but don't even bother. Just across the road is a cafe called The Wood and we ate breakfast there everyday - it's amazing! Location is pretty good, a $5 taxi down to Venice beach. We didnt have a car but if we did we would have struggled with parking as there isn't many parks. Trying to get information out of the reception staff was a bit hard at times until a young guy spoke to us who was very helpful. Overall our stay here was ok, but like I said we were out all day, leaving our room at 8ish and returning after 9pm - think of it like a hostel and you will be fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 5 nights of our 5 weeks in America. We picked this place because it was relatively cheap and all we really needed was a bed to crash in after long days touring and sightseeing. Our room was ok, yes it had a musty smell but the bed was clean and made for us everyday, the toilet and showers also clean and tidy. The place advertised breakfast but don't even bother. Just across the road is a cafe called The Wood and we ate breakfast there everyday - it's amazing! Location is pretty good, a $5 taxi down to Venice beach. We didnt have a car but if we did we would have struggled with parking as there isn't many parks. Trying to get information out of the reception staff was a bit hard at times until a young guy spoke to us who was very helpful. Overall our stay here was ok, but like I said we were out all day, leaving our room at 8ish and returning after 9pm - think of it like a hostel and you will be fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r161021731-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161021731</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Worst Service Ever!</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with...The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with more examples cheap harsh towels, green, slimy fountain water, moldy window seals and zero customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with...The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with more examples cheap harsh towels, green, slimy fountain water, moldy window seals and zero customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r156445069-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156445069</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>convenient, clean, great value</t>
+  </si>
+  <si>
+    <t>I spent six months in LA couch-surfing, motel-hopping and sometimes car-sleeping while finishing a job. It was a particularly crappy job with a crappy salary with which I could not land an apartment in the West LA area ... which ... nevermind, this is not my emo Livejournal ...
+Anyway, the point is that I've stayed at many of the motels on this side of the 405 that are roughly under $100 a night that you can book online (there aren't a ton, and they are, shall we say, ECLECTIC) and in retrospect I am sad I took so long to give the Rodeway Inn Culver City a chance. Maybe I was dissuaded by the photos on Hotels.com, which included a lot of tube TV's, which to me usually says red flag - like maybe they also haven't discovered washing machines yet for cleaning linens. 
+One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it...I spent six months in LA couch-surfing, motel-hopping and sometimes car-sleeping while finishing a job. It was a particularly crappy job with a crappy salary with which I could not land an apartment in the West LA area ... which ... nevermind, this is not my emo Livejournal ...Anyway, the point is that I've stayed at many of the motels on this side of the 405 that are roughly under $100 a night that you can book online (there aren't a ton, and they are, shall we say, ECLECTIC) and in retrospect I am sad I took so long to give the Rodeway Inn Culver City a chance. Maybe I was dissuaded by the photos on Hotels.com, which included a lot of tube TV's, which to me usually says red flag - like maybe they also haven't discovered washing machines yet for cleaning linens. One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it is my go-to for West LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I spent six months in LA couch-surfing, motel-hopping and sometimes car-sleeping while finishing a job. It was a particularly crappy job with a crappy salary with which I could not land an apartment in the West LA area ... which ... nevermind, this is not my emo Livejournal ...
+Anyway, the point is that I've stayed at many of the motels on this side of the 405 that are roughly under $100 a night that you can book online (there aren't a ton, and they are, shall we say, ECLECTIC) and in retrospect I am sad I took so long to give the Rodeway Inn Culver City a chance. Maybe I was dissuaded by the photos on Hotels.com, which included a lot of tube TV's, which to me usually says red flag - like maybe they also haven't discovered washing machines yet for cleaning linens. 
+One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it...I spent six months in LA couch-surfing, motel-hopping and sometimes car-sleeping while finishing a job. It was a particularly crappy job with a crappy salary with which I could not land an apartment in the West LA area ... which ... nevermind, this is not my emo Livejournal ...Anyway, the point is that I've stayed at many of the motels on this side of the 405 that are roughly under $100 a night that you can book online (there aren't a ton, and they are, shall we say, ECLECTIC) and in retrospect I am sad I took so long to give the Rodeway Inn Culver City a chance. Maybe I was dissuaded by the photos on Hotels.com, which included a lot of tube TV's, which to me usually says red flag - like maybe they also haven't discovered washing machines yet for cleaning linens. One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it is my go-to for West LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r153150314-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153150314</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Public safety concern</t>
+  </si>
+  <si>
+    <t>This place needs a phone call to the Department of Public Health. There was mold in the shower, and mold in the upper door frame. After seeing all the mold, we didn't want to touch anything, we just wanted to go to bed and get out of there the next day. Going to bed was even a challenge, stains in the bed sheets, hole in the comforter, the floor felt disgusting...it was just dirty. Then one of the neighbors was partying from 3AM to 6AM - I slept through it, but my friend didn't, When we complained, we were told that we should have notified them and they would have moved us to a different room. She basically said that it was all our fault for not contacting them - so no refunds, compensation, and not even an apology.Awful experience here, I would much rather stay anywhere else. For the price I expected way more, and got way less.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This place needs a phone call to the Department of Public Health. There was mold in the shower, and mold in the upper door frame. After seeing all the mold, we didn't want to touch anything, we just wanted to go to bed and get out of there the next day. Going to bed was even a challenge, stains in the bed sheets, hole in the comforter, the floor felt disgusting...it was just dirty. Then one of the neighbors was partying from 3AM to 6AM - I slept through it, but my friend didn't, When we complained, we were told that we should have notified them and they would have moved us to a different room. She basically said that it was all our fault for not contacting them - so no refunds, compensation, and not even an apology.Awful experience here, I would much rather stay anywhere else. For the price I expected way more, and got way less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r138335934-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138335934</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>the worse place I've ever been in my life</t>
+  </si>
+  <si>
+    <t>This horrible motel was our only chance of getting a room in a fully booked strange L.A. night... Though the morning after me and my husband looked at each other and said: maybe it was better if we had slept in teh car. That would tell you all about the place. And teh price was very high too...</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r116113437-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116113437</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Intransigent customer service</t>
+  </si>
+  <si>
+    <t>Through a mistake due to my travel website, I ended up with a reservation to this hotel without my knowledge and was charged a cancellation fee by Rodeway Inn. When I called to discuss ways to remedy the situation, the owner was fiercely argumentative and wouldn't even provide simple information like confirming which travel website I booked the hotel from, which would help me independently resolve the charge issue.What was really disturbing was that the owner actively lied to me in an attempt to provide an excuse as to why she couldn't even attempt to consider a refund. Her main claim was that the hotel was at capacity and they were actively turning away potential customers. This is likely to be false because, believing that I didn't have a reservation in the area, I searched around for a hotel room myself the day of, and there were plenty of vacancies in the area. So in lieu of having real customers, the hotel decided to charge me for a reservation I never actually made. Aggravating it all, I only learned of the charge later when I went over my credit card statement; no bill or receipt or phone call or anything from the hotel itself, just a mysterious charge.In short, this hotel may a fine place to stay but if you have any issues with your stay be prepared for ridiculous, overly defensive and argumentative customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Through a mistake due to my travel website, I ended up with a reservation to this hotel without my knowledge and was charged a cancellation fee by Rodeway Inn. When I called to discuss ways to remedy the situation, the owner was fiercely argumentative and wouldn't even provide simple information like confirming which travel website I booked the hotel from, which would help me independently resolve the charge issue.What was really disturbing was that the owner actively lied to me in an attempt to provide an excuse as to why she couldn't even attempt to consider a refund. Her main claim was that the hotel was at capacity and they were actively turning away potential customers. This is likely to be false because, believing that I didn't have a reservation in the area, I searched around for a hotel room myself the day of, and there were plenty of vacancies in the area. So in lieu of having real customers, the hotel decided to charge me for a reservation I never actually made. Aggravating it all, I only learned of the charge later when I went over my credit card statement; no bill or receipt or phone call or anything from the hotel itself, just a mysterious charge.In short, this hotel may a fine place to stay but if you have any issues with your stay be prepared for ridiculous, overly defensive and argumentative customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r116095272-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116095272</t>
+  </si>
+  <si>
+    <t>I like this place, even though its a simple motel.</t>
+  </si>
+  <si>
+    <t>Okay the breakfast is awful and the blanket on my bed had a hole it in but I really like this place and have stayed here three times now. Partly its because the location is really good, but mainly because all the rooms look onto a grass courtyard with a fountain and plants, rather than a concrete carpark like all the other motels Ive stayed in here. So that makes the place feel like a tiny refuge from LA's urban craziness. Plus the internet is fast, works 95% of the time, and is free, it comes with flat screen TVs and the room rate is cheaper than Travel Lodge - even if you have to add the cost of buying your own breakfast elsewhere. So Id recommend this place (just get breakfast down the road in Venice!)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Okay the breakfast is awful and the blanket on my bed had a hole it in but I really like this place and have stayed here three times now. Partly its because the location is really good, but mainly because all the rooms look onto a grass courtyard with a fountain and plants, rather than a concrete carpark like all the other motels Ive stayed in here. So that makes the place feel like a tiny refuge from LA's urban craziness. Plus the internet is fast, works 95% of the time, and is free, it comes with flat screen TVs and the room rate is cheaper than Travel Lodge - even if you have to add the cost of buying your own breakfast elsewhere. So Id recommend this place (just get breakfast down the road in Venice!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r115377253-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115377253</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>Not safe, poor service, free breakfast had almost nothing</t>
+  </si>
+  <si>
+    <t>We didn't feel safe because the room we got didn't have a safety chain in the door. When we asked the reception about it, the person (seemed to be the owner) somehow tried to explain to me that, the chains are not required because the door has 'electronic lock'. He was perhaps thinking that, he could convince me by his useless explanation. The locality is not very safe.Although they advertised free continental breakfast when I booked online, there was almost nothing except for a few mini miffins (don't know how old were those). Instead of deceiving people, they should not advertise about free breakfast.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r21788348-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>21788348</t>
+  </si>
+  <si>
+    <t>11/12/2008</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I usually come to LA, and I prefer this motel, though it is franchisee, it's rates are cooperatively lower.  Motel location is good, and front yard view is also good.This motel is decent to stay. It has newly renovated rooms. Its staff is also active. Yet i didn't get any bad experience during my stay.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r18001016-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>18001016</t>
+  </si>
+  <si>
+    <t>07/18/2008</t>
+  </si>
+  <si>
+    <t>Don't dare to stay there. Horrific Exp.</t>
+  </si>
+  <si>
+    <t>Hi. I booked EconoLodge through Hotels.com website and i had horific experience during my one day stay. Firstly, the cab to pickup from airport came an hour late. And then the reception guy - Mahroof, talked to me so badly. It was a night time and I was with my wife, otherwise i would have taken care of him myself. Rooms were filthy and dirty, with no proper locks. Drunk people were roaming around even at 1 'o clock in night. Please never go there with your spouse or kids. It's one of the worst place. Hotels.com should remove this hotel from its prestigious list of hotels.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r16709548-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>16709548</t>
+  </si>
+  <si>
+    <t>06/05/2008</t>
+  </si>
+  <si>
+    <t>Great value!  Cool neighborhood.  Good location.</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice, even when I could have stayed at a more expensive hotel as a business expense.  Great place to stay for the money!  Fine location -- especially if you like Mexican food.  Close to L.A.'s west side neighborhoods as well as LAX and the Pacific Coast Highway and I-405.The staff appreciate your business and keep the property clean. There's a nice grassy courtyard that they keep up, that makes it nice.  The rooms are fine.  And on my second stay a few months later, I got a nicely renovated room.  (I saw an insect once on a previous stay, and when I reported it to the manager, she took it seriously and gave me the impression they would respond immediately with their exterminator.)  They provide attentive, friendly service.  It's not a luxury hotel, but for this type of property, it's a wonderful bargain.  Personally, I'll trade the doorman for the fridge and microwave in the room.  There are other amenities missing, and but for that price, I can go to a gym and pay a day fee, and I can go to a pancake house for breakfast, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice, even when I could have stayed at a more expensive hotel as a business expense.  Great place to stay for the money!  Fine location -- especially if you like Mexican food.  Close to L.A.'s west side neighborhoods as well as LAX and the Pacific Coast Highway and I-405.The staff appreciate your business and keep the property clean. There's a nice grassy courtyard that they keep up, that makes it nice.  The rooms are fine.  And on my second stay a few months later, I got a nicely renovated room.  (I saw an insect once on a previous stay, and when I reported it to the manager, she took it seriously and gave me the impression they would respond immediately with their exterminator.)  They provide attentive, friendly service.  It's not a luxury hotel, but for this type of property, it's a wonderful bargain.  Personally, I'll trade the doorman for the fridge and microwave in the room.  There are other amenities missing, and but for that price, I can go to a gym and pay a day fee, and I can go to a pancake house for breakfast, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r13015172-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>13015172</t>
+  </si>
+  <si>
+    <t>01/26/2008</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights at this motel and had a wonderful stay. The room was spacious enough for our family of five with a cot. The rooms were quiet, did not hear other patrons or the street. The breakfast was adequate but not fancy. The location was great for us. We were only able to get one reward stamp and I thought the rewards were awarded by night not total motel stay. Always had problems with the rewards program with Econo Lodge.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r10079795-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>10079795</t>
+  </si>
+  <si>
+    <t>10/14/2007</t>
+  </si>
+  <si>
+    <t>No Go!</t>
+  </si>
+  <si>
+    <t>Upon arrival we found that the non-smoking room had cigarette holes in the sheets, plus the hotel was in a really bad part of town and was under construction. The reception area was behind a glass window where we could not speak with the host.We did not stay there and requested a refund for our reservations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r8467440-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8467440</t>
+  </si>
+  <si>
+    <t>08/20/2007</t>
+  </si>
+  <si>
+    <t>Worst Lodging Experience</t>
+  </si>
+  <si>
+    <t>We stayed here 1 long night !  Arrived 2 AM with 3 sleepy children and an exhausted adults.  The door dead bolt was torn from the door and the window was open and screen bent as if someone had attempted to break in. (we put a chair against the door all night.  The toilet moved when you sat on it and the shower and ceilings and walls of the bathroom were covered in mold and mildew.  Wall paper was peeling from the walls.  We pulled our covers down on our bed and discovered filthy sheets with what appeared to be dried feces.  The sheets, although washed, had urine or water stains on them.  The room was musty and the smell worsened when we turned on the air conditioner.  When we complained they said that we set our standards too high.  They refused to refund our fee but offered us a 10% discount on a future stay as long as it was before December of this year.  We already get a 10% discount with AARP and we only travel to the west coast once a year.  This was a terrible experience for our whole family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We stayed here 1 long night !  Arrived 2 AM with 3 sleepy children and an exhausted adults.  The door dead bolt was torn from the door and the window was open and screen bent as if someone had attempted to break in. (we put a chair against the door all night.  The toilet moved when you sat on it and the shower and ceilings and walls of the bathroom were covered in mold and mildew.  Wall paper was peeling from the walls.  We pulled our covers down on our bed and discovered filthy sheets with what appeared to be dried feces.  The sheets, although washed, had urine or water stains on them.  The room was musty and the smell worsened when we turned on the air conditioner.  When we complained they said that we set our standards too high.  They refused to refund our fee but offered us a 10% discount on a future stay as long as it was before December of this year.  We already get a 10% discount with AARP and we only travel to the west coast once a year.  This was a terrible experience for our whole family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r5564867-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5564867</t>
+  </si>
+  <si>
+    <t>08/06/2006</t>
+  </si>
+  <si>
+    <t>Bleh!</t>
+  </si>
+  <si>
+    <t>What a disappointment!  The hotel location on the web was given as Marina Del Rey, but when we actually drove there we found it was a couple of miles east of there, in a seedy looking part of Culver City.  The room was clean enough, but by the time we paid the room rate (which we booked it for only because of the listed location) and the additional roll-away fee for our third child, it was $20 more than the 4-star Westin at the airport, about 10 minutes further away!  If it was cheap and you understood where it was, it would be okay, but if you are expecting value near the beach, this isn't it.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a disappointment!  The hotel location on the web was given as Marina Del Rey, but when we actually drove there we found it was a couple of miles east of there, in a seedy looking part of Culver City.  The room was clean enough, but by the time we paid the room rate (which we booked it for only because of the listed location) and the additional roll-away fee for our third child, it was $20 more than the 4-star Westin at the airport, about 10 minutes further away!  If it was cheap and you understood where it was, it would be okay, but if you are expecting value near the beach, this isn't it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r5446619-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5446619</t>
+  </si>
+  <si>
+    <t>07/09/2006</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>just stayed at this econolodge June 30-July 6 , my first trip to L.A. and this motel was the perfect choice
+it is located about 5 minutes from Venice Beach, about 2 minutes from highway 405 which takes you everywhere you wanna go, it's a short drive to Santa Monica, just a great location. It's on a pretty busy road, Washington Blvd, but it's actually on a slightly less busy part - there is a Ramada and a Holiday Inn further down Washington Blvd, a tiny bit closer to the beach and about $20 more per night, but they are both on very busy intersections, this motel is not.  Also most of the rooms are away from the street, our room was very quiet. 
+Room was clean, simple and not HUGE but very clean and smelled fresh, it was actually better than expected
+management is very nice and helpful, we were able to check in a little early with no problem, again better than expected
+the area itself is not bad, i felt totally safe there, actually a pretty quiet area, and there is a little internet cafe and coin laundry place about 100 feet from the motel
+the motel offers free wireless internet access but we had problems getting it to work, could have been something on our side though
+there is also continental breakfast at the motel - pastries, juice, coffee, 
+basically there is absolutely nothing bad i...just stayed at this econolodge June 30-July 6 , my first trip to L.A. and this motel was the perfect choiceit is located about 5 minutes from Venice Beach, about 2 minutes from highway 405 which takes you everywhere you wanna go, it's a short drive to Santa Monica, just a great location. It's on a pretty busy road, Washington Blvd, but it's actually on a slightly less busy part - there is a Ramada and a Holiday Inn further down Washington Blvd, a tiny bit closer to the beach and about $20 more per night, but they are both on very busy intersections, this motel is not.  Also most of the rooms are away from the street, our room was very quiet. Room was clean, simple and not HUGE but very clean and smelled fresh, it was actually better than expectedmanagement is very nice and helpful, we were able to check in a little early with no problem, again better than expectedthe area itself is not bad, i felt totally safe there, actually a pretty quiet area, and there is a little internet cafe and coin laundry place about 100 feet from the motelthe motel offers free wireless internet access but we had problems getting it to work, could have been something on our side thoughthere is also continental breakfast at the motel - pastries, juice, coffee, basically there is absolutely nothing bad i can say about this place, it really enhanced our experience, and for less than $90 a nightMoreShow less</t>
+  </si>
+  <si>
+    <t>just stayed at this econolodge June 30-July 6 , my first trip to L.A. and this motel was the perfect choice
+it is located about 5 minutes from Venice Beach, about 2 minutes from highway 405 which takes you everywhere you wanna go, it's a short drive to Santa Monica, just a great location. It's on a pretty busy road, Washington Blvd, but it's actually on a slightly less busy part - there is a Ramada and a Holiday Inn further down Washington Blvd, a tiny bit closer to the beach and about $20 more per night, but they are both on very busy intersections, this motel is not.  Also most of the rooms are away from the street, our room was very quiet. 
+Room was clean, simple and not HUGE but very clean and smelled fresh, it was actually better than expected
+management is very nice and helpful, we were able to check in a little early with no problem, again better than expected
+the area itself is not bad, i felt totally safe there, actually a pretty quiet area, and there is a little internet cafe and coin laundry place about 100 feet from the motel
+the motel offers free wireless internet access but we had problems getting it to work, could have been something on our side though
+there is also continental breakfast at the motel - pastries, juice, coffee, 
+basically there is absolutely nothing bad i...just stayed at this econolodge June 30-July 6 , my first trip to L.A. and this motel was the perfect choiceit is located about 5 minutes from Venice Beach, about 2 minutes from highway 405 which takes you everywhere you wanna go, it's a short drive to Santa Monica, just a great location. It's on a pretty busy road, Washington Blvd, but it's actually on a slightly less busy part - there is a Ramada and a Holiday Inn further down Washington Blvd, a tiny bit closer to the beach and about $20 more per night, but they are both on very busy intersections, this motel is not.  Also most of the rooms are away from the street, our room was very quiet. Room was clean, simple and not HUGE but very clean and smelled fresh, it was actually better than expectedmanagement is very nice and helpful, we were able to check in a little early with no problem, again better than expectedthe area itself is not bad, i felt totally safe there, actually a pretty quiet area, and there is a little internet cafe and coin laundry place about 100 feet from the motelthe motel offers free wireless internet access but we had problems getting it to work, could have been something on our side thoughthere is also continental breakfast at the motel - pastries, juice, coffee, basically there is absolutely nothing bad i can say about this place, it really enhanced our experience, and for less than $90 a nightMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1294,1988 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29345</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_680.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>OMurphyUK</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>The only reason we booked this place is because it was the cheapest in the area. It was a dingy motel with crusty bits on the carpet in our room. There were also stains on the comforter. When we arrived early evening there was parking but when we got back from dinner I had to park half on the sidewalk which I wasn't too happy about doing but a hotel employee said it was ok. The 'breakfast' is a bit of a joke. It's practically non existent. I honestly would price this place at $20 a night and not the $125 we paid! Spend the extra $80-$100 and stay in a 4 star place elsewhere.More</t>
   </si>
   <si>
+    <t>Trinidad J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r499186965-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Well it wasn't the best hotel I've ever stayed at and wasn't the worst. The parking was very limited and if you found a spot it was a tight squeeze. The AC in the room worked fine but had a loud noise when it started. The hotel staff was pleasant. The room was a room to sleep and shower. We only stayed one night so, there are some parts to the hotel that are dirty but I wasn't there to explore the hotel neither. My only concern was the door, although there was a deadbolt, there was a security latch that didn't quite work as well as I would have liked it to cause if you accidentally pushed on the door with the latch it pulled the frame off the wall a little. That was a little scary. I expected the hotel to a little worn and it was. If you just need a place to sleep for a night then yes by all means get a room but if your looking for a hotel with pool, lot of parking, full breakfast and a more contemporary look then go somewhere else. More</t>
   </si>
   <si>
+    <t>danhshubin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r497689426-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>horrible, I was cheated with the price of the hotel, but it was 10 PM and I had no choice. The manager barely spoke English and very rude, The room was supposed to be non-smoking but it stunk. The shudders were broken and tapped with masking tape, the window barely move. The water in the shower was barely warm. There were people going in and out of the rooms all night. I complained to Rodeway Inn about what else he was running at this hotel. The parking was the pits and he ran out of coffee. When I complained in the morning the manager could care less, or maybe he did not understand English. He said he would charge me if I did not return the plastic cards in the morning. Do not stay here!!! I will never again. Now I need to go to my credit card company and settle the matter and I complained to Rodeway Inn.More</t>
   </si>
   <si>
+    <t>megan-woodruff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r433835116-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>alanjhardy2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r433756389-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>bob_lamke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r430729820-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>Hard to even give it a "one". Where to begin. At check in they seem disinterested.This is an ancient property and looks it.Very little parking. All on site parking involves driving down a one way alley. If you want to leave you have to reverse out onto a street one of which is very busy. Not enough parking for all so street parking is the solution.A noisy place at all hours with some on site/residents playing a radio with door open. Old, tired, worn linens on the beds. Direct TV would be nice if you cared to stay here longer than the minimum hours to sleep. Even so that shut down and had to be reset one night out of two.Use Choice Hotels often. This place is substandard for any chain at any price point. Don't know how Choice buys into this.Good location to see this interesting area but.....This is a shabby property.They do have a nice 20 by 20 lawn out front.I saw a review that said something similar to my opinion. Sorry I didn't research first.More</t>
   </si>
   <si>
+    <t>Chris P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r362653124-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>dlws</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r321488540-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>globetrotter60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r317902641-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
   </si>
   <si>
     <t>I made a phone reservation by recommendation of agent, but while I was waiting for confirmation #, check it out on internet and saw bad reviews.  Told the agent, but informed me I couldn't cancel without losing my payment.  As the price was about 185 plus tax and I was to arrive late and leave early, I didn't fight the room.  But when I saw what we got for the price, I took pictures of the bath fan falling from the cieling, bad repairs in the bathroom, burnt carpeting, etc.  Showed the receptionist and requested a discount.  She told me to complain to the booking agent, but with NO apologies.  Never had stayed in a Rodeway before, but after this experience, will never stay again.More</t>
+  </si>
+  <si>
+    <t>Eddie C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r294381408-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
@@ -364,6 +394,9 @@
 We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.)....My colleague and I work for a not-for-profit organization, so our budget for our California trip was limited. We stayed at a Choice Hotel near LAX Airport when we first arrived, which was clean and quite nice. We stayed at that hotel for 3 days and we were quite happy with that hotel. The only reason we booked and moved to the Rodeway Inn in Culver City for our remaining 3 days of our trip was because we needed to be close to Santa Monica beach and we thought Rodeway was affordable. Especially having stayed in a Choice Hotel for 3 days upon our arrival, we figured the standard for all Choice Hotels would be the same -- were we ever wrong about that!Upon arrival, we checked in around 7:30pm  and the front desk guy was very polite and helpful. He told us about breakfast in the morning and warned us it wasn't anything to write home to mom about. After checking in, we quickly dropped off our bags in our room and raced off to a meeting we had in Santa Monica. We returned to the hotel at 10:30pm and parked our car in the ridiculously small parking lot (mind you, we were lucky to get a spot and not have to park on the street and worry about what day of the week it was or time of day or if the street cleaners were coming, etc.). After we parked, we went up to our room. I checked the beds for bed bugs and it seemed clean. The beds were made and looked clean.In the meantime, my colleague inspected the bathroom and the rest of the room and found ants in the bathroom (all over the floor and on the toilet) and an unidentified substance splattered all over the walls in the main living area.We quickly called the first Choice Hotel we stayed at to see if they had room. Luckily there was a cancelation that night so they got us back in that hotel for our remaining the 3 day stay in California. We then went downstairs and told the front desk guy we wanted to leave. He told us he could refund us for 2 of the 3 nights we were scheduled to stay, but that he had to charge us for the first night because we were there for more than 2 hours.Now, I get it... hotels probably see people checking in for 2 hours to grab a quick nap or do other activities that may take less than 2 hours. However, when you have a bug problem and the room has an unidentified substance splattered all over the walls, I think you may want to reconsider that policy. Plus, they could have called the other Choice Hotel to confirm we reserved that hotel that night.I told the front desk guy we would give the hotel a bad review because we couldn't get our refund. He didn't seem concerned. I wish I thought of checking Trip Advisor before we booked our accommodations. If you read the 1-star reviews and think that it's an isolated incident and how bad could it really be??? Well, there is a reason why this hotel is so cheap despite being so close to Venice Beach. You really get what you paid for!More</t>
   </si>
   <si>
+    <t>Diamond O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r291258275-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -379,6 +412,9 @@
     <t xml:space="preserve">The Rode Way Inn. Is a great place to stay. Weather you are on holiday or for business. Easy to access any part of LA from the Rode Way Inn. The rooms are very clean and the staff is helpful. Is a walking distance to some of the very good entertainment places in LA. I will stay there the next time I am back in town. </t>
   </si>
   <si>
+    <t>Mason E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r271694836-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
     <t>We generally stay at Comfort Inn or higher levels of Choice Hotels and we knew Rodeway is a lower classification but we were visiting a friend who lives nearby. In this particular hotel, the breakfast was truly "continental" with Little Debbie cinnamon rolls as the highlight. I went in for coffee on two occasions, the first time as I was leaving for a meeting, they were out and I couldn't wait for them to make more. The second at 9:55, wanting a cup before we checked-out, they again were out of coffee and not going to make more as "breakfast was till 10". (Two self-service cappuccino coffee machines were out of service"). The room appeared clean but on close inspection had some cobwebs and the shower curtain rod was about to fall off. The area has a "seedy" feel to it (though most homes are $1 million plus homes) so we took our bikes off our locked bike rack and put them in the room.More</t>
   </si>
   <si>
+    <t>r7navarro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r254761732-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -421,6 +460,9 @@
     <t>Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care...Upon arrival, I tried checking in at 2pm as the website said I could do, and I was told I'd have to wait another hour before I could check-in because they hadn't cleaned our room yet! Then she tells me I could get my keys and check-in but come back after 3pm, but to make sure that my room had been cleaned before I went in... really? I shouldn't have to do that! So my boyfriend and I had to delay our plans because we wanted to freshen up and change before meeting my brother at Venice Beach. Finally, after killing an hour and just wandering around the neighborhood, we come back to the room and try to shower and hurry out to go on with our day. My boyfriend goes into the shower and as he opened up the shower curtain, a ROACH fell on him! So gross! Then there was also a trail of ants in the bathroom along the floor. Needless to say, these rooms were not very clean. There was mold on the shower curtain and stains on the pillow sheets and carpet. When we were getting ready to leave we looked around the beds to make sure we weren't leaving anything behind, and we find a soda can- which wasn't ours, so this room wasn't cleaned well! If you are looking for a cheaply priced room to stay near Venice Beach, and don't really care about the cleanliness, then I guess this would be an ok place to stay. But I definitely would not stay there again!More</t>
   </si>
   <si>
+    <t>Paige M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r234416127-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -439,6 +481,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Kath317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r234343218-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -454,6 +499,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Playaman47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r174412851-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -478,6 +526,9 @@
     <t>I booked this hotel relying upon the glowing testimonies on their website.  Only when en route in the air did I read what the last few commentators said on Trip  Advisor.  By then, of course, it was too late to change.  So, how was it?  Totally forgetable.  As a recent commentator notes, :You get what you pay for."  But for an average of $105 a night, it wasn't terrible.  The room was clean, the bed fresh- smelling and comfortable (even though the pillows were oddly shaped).  And, the bathroom was adequate - despite the clear presence of mold in some corners and a bathtub surface in serious need of repair.  The air conditioner worked well, but the safe didn't work at all ... and parking our full-sized vehicle was a challenge (actually a real pain).  Breakfast was a joke.  Would I stay there again?  No, but it wouldn't be the end of the world if I did.  And, to be fair, the staff was courteous and polite.  The owners have clearly taken a really bad old property and tried to upgrade it.  They still have a good ways to go, but it's not terrible ... just "totally forgettable."More</t>
   </si>
   <si>
+    <t>Billandboses</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r164217272-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -496,6 +547,9 @@
     <t>My husband and I stayed here for 5 nights of our 5 weeks in America. We picked this place because it was relatively cheap and all we really needed was a bed to crash in after long days touring and sightseeing. Our room was ok, yes it had a musty smell but the bed was clean and made for us everyday, the toilet and showers also clean and tidy. The place advertised breakfast but don't even bother. Just across the road is a cafe called The Wood and we ate breakfast there everyday - it's amazing! Location is pretty good, a $5 taxi down to Venice beach. We didnt have a car but if we did we would have struggled with parking as there isn't many parks. Trying to get information out of the reception staff was a bit hard at times until a young guy spoke to us who was very helpful. Overall our stay here was ok, but like I said we were out all day, leaving our room at 8ish and returning after 9pm - think of it like a hostel and you will be fine. More</t>
   </si>
   <si>
+    <t>Charline17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r161021731-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -512,6 +566,9 @@
   </si>
   <si>
     <t>The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with...The Rodeway Inn was the worst hotel I have stayed in. The parking lot is almost inaccessible and there is no guaranteed guest parking. I had to park on the street and ending up with a $60 ticket because it was a day the street sweepers come. The hotel did not give us a courtesy warning about the parking rules and did not offer an compensation for the ticket. The rooms were not remodeled professionally and the bathroom walls were water stained and dingy. The grounds appeared to be kept until you look under the staircases to find piled up trash and dirty and grease. The laundry room was deplorable and the housekeeping staff uses it as well. I found myself having to drive down the street to do my laundry because housekeeping left towels strung about the small 1 washer 1 dryer closet. The floors and trash inside the laundry room would leave me to believe that any housekeeper that does laundry in such filthy conditions has no real dedication to their profession and cares little for the pride one feeling when you do your job to its fullest. The front office staff were in personable and the continental breakfast was a mere honey bun in a wrapper, a pitcher of warm OJ and fresh brewed coffee from an unsanitary coffee machine. The price for this luxurious stay was $450 for only 3 nights. I could go on with more examples cheap harsh towels, green, slimy fountain water, moldy window seals and zero customer service.More</t>
+  </si>
+  <si>
+    <t>jxz_13</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r156445069-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
@@ -539,6 +596,9 @@
 One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it...I spent six months in LA couch-surfing, motel-hopping and sometimes car-sleeping while finishing a job. It was a particularly crappy job with a crappy salary with which I could not land an apartment in the West LA area ... which ... nevermind, this is not my emo Livejournal ...Anyway, the point is that I've stayed at many of the motels on this side of the 405 that are roughly under $100 a night that you can book online (there aren't a ton, and they are, shall we say, ECLECTIC) and in retrospect I am sad I took so long to give the Rodeway Inn Culver City a chance. Maybe I was dissuaded by the photos on Hotels.com, which included a lot of tube TV's, which to me usually says red flag - like maybe they also haven't discovered washing machines yet for cleaning linens. One night when I was particular desperate for shelter I ended up here ... and it was such a pleasant surprise! The owners and management have done minor updates that have made a substantial difference since the Hotels.com pics (flat screens, DirecTV, microwaves and fridges in every room, granite bathroom counter tops, fresh paint). You can tell they care. And as motels go, the set up is actually really solid. I find the staff extremely friendly, reliable and accommodating, the price is right, I can park my car for free, there's free breakfast, and it is my go-to for West LA.More</t>
   </si>
   <si>
+    <t>originalcopy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r153150314-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -560,6 +620,9 @@
     <t>This place needs a phone call to the Department of Public Health. There was mold in the shower, and mold in the upper door frame. After seeing all the mold, we didn't want to touch anything, we just wanted to go to bed and get out of there the next day. Going to bed was even a challenge, stains in the bed sheets, hole in the comforter, the floor felt disgusting...it was just dirty. Then one of the neighbors was partying from 3AM to 6AM - I slept through it, but my friend didn't, When we complained, we were told that we should have notified them and they would have moved us to a different room. She basically said that it was all our fault for not contacting them - so no refunds, compensation, and not even an apology.Awful experience here, I would much rather stay anywhere else. For the price I expected way more, and got way less.More</t>
   </si>
   <si>
+    <t>CamillaSad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r138335934-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -578,6 +641,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Cow185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r116113437-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -599,6 +665,9 @@
     <t>Through a mistake due to my travel website, I ended up with a reservation to this hotel without my knowledge and was charged a cancellation fee by Rodeway Inn. When I called to discuss ways to remedy the situation, the owner was fiercely argumentative and wouldn't even provide simple information like confirming which travel website I booked the hotel from, which would help me independently resolve the charge issue.What was really disturbing was that the owner actively lied to me in an attempt to provide an excuse as to why she couldn't even attempt to consider a refund. Her main claim was that the hotel was at capacity and they were actively turning away potential customers. This is likely to be false because, believing that I didn't have a reservation in the area, I searched around for a hotel room myself the day of, and there were plenty of vacancies in the area. So in lieu of having real customers, the hotel decided to charge me for a reservation I never actually made. Aggravating it all, I only learned of the charge later when I went over my credit card statement; no bill or receipt or phone call or anything from the hotel itself, just a mysterious charge.In short, this hotel may a fine place to stay but if you have any issues with your stay be prepared for ridiculous, overly defensive and argumentative customer service.More</t>
   </si>
   <si>
+    <t>Boutiqueseeker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r116095272-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -617,6 +686,9 @@
     <t>Okay the breakfast is awful and the blanket on my bed had a hole it in but I really like this place and have stayed here three times now. Partly its because the location is really good, but mainly because all the rooms look onto a grass courtyard with a fountain and plants, rather than a concrete carpark like all the other motels Ive stayed in here. So that makes the place feel like a tiny refuge from LA's urban craziness. Plus the internet is fast, works 95% of the time, and is free, it comes with flat screen TVs and the room rate is cheaper than Travel Lodge - even if you have to add the cost of buying your own breakfast elsewhere. So Id recommend this place (just get breakfast down the road in Venice!)More</t>
   </si>
   <si>
+    <t>SP_travel35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r115377253-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -635,6 +707,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>paulsandiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r21788348-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -653,6 +728,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>mykkorner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r18001016-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -671,6 +749,9 @@
     <t>April 2008</t>
   </si>
   <si>
+    <t>Modern_Art_Lover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r16709548-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -692,6 +773,9 @@
     <t>I've stayed at this hotel twice, even when I could have stayed at a more expensive hotel as a business expense.  Great place to stay for the money!  Fine location -- especially if you like Mexican food.  Close to L.A.'s west side neighborhoods as well as LAX and the Pacific Coast Highway and I-405.The staff appreciate your business and keep the property clean. There's a nice grassy courtyard that they keep up, that makes it nice.  The rooms are fine.  And on my second stay a few months later, I got a nicely renovated room.  (I saw an insect once on a previous stay, and when I reported it to the manager, she took it seriously and gave me the impression they would respond immediately with their exterminator.)  They provide attentive, friendly service.  It's not a luxury hotel, but for this type of property, it's a wonderful bargain.  Personally, I'll trade the doorman for the fridge and microwave in the room.  There are other amenities missing, and but for that price, I can go to a gym and pay a day fee, and I can go to a pancake house for breakfast, etc.More</t>
   </si>
   <si>
+    <t>wriggsontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r13015172-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -710,6 +794,9 @@
     <t>December 2007</t>
   </si>
   <si>
+    <t>Quality_Person</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r10079795-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -725,6 +812,9 @@
     <t>Upon arrival we found that the non-smoking room had cigarette holes in the sheets, plus the hotel was in a really bad part of town and was under construction. The reception area was behind a glass window where we could not speak with the host.We did not stay there and requested a refund for our reservations.</t>
   </si>
   <si>
+    <t>NanaMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r8467440-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -746,6 +836,9 @@
     <t>We stayed here 1 long night !  Arrived 2 AM with 3 sleepy children and an exhausted adults.  The door dead bolt was torn from the door and the window was open and screen bent as if someone had attempted to break in. (we put a chair against the door all night.  The toilet moved when you sat on it and the shower and ceilings and walls of the bathroom were covered in mold and mildew.  Wall paper was peeling from the walls.  We pulled our covers down on our bed and discovered filthy sheets with what appeared to be dried feces.  The sheets, although washed, had urine or water stains on them.  The room was musty and the smell worsened when we turned on the air conditioner.  When we complained they said that we set our standards too high.  They refused to refund our fee but offered us a 10% discount on a future stay as long as it was before December of this year.  We already get a 10% discount with AARP and we only travel to the west coast once a year.  This was a terrible experience for our whole family.More</t>
   </si>
   <si>
+    <t>Summertrp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r5564867-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -762,6 +855,9 @@
   </si>
   <si>
     <t>What a disappointment!  The hotel location on the web was given as Marina Del Rey, but when we actually drove there we found it was a couple of miles east of there, in a seedy looking part of Culver City.  The room was clean enough, but by the time we paid the room rate (which we booked it for only because of the listed location) and the additional roll-away fee for our third child, it was $20 more than the 4-star Westin at the airport, about 10 minutes further away!  If it was cheap and you understood where it was, it would be okay, but if you are expecting value near the beach, this isn't it.More</t>
+  </si>
+  <si>
+    <t>KHar007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84365-r5446619-Rodeway_Inn_near_Venice_Beach-Los_Angeles_California.html</t>
@@ -1298,43 +1394,47 @@
       <c r="A2" t="n">
         <v>29345</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1348,41 +1448,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29345</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -1401,50 +1505,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29345</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1464,50 +1572,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29345</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1525,50 +1637,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29345</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1588,50 +1704,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29345</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1645,50 +1765,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29345</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1702,50 +1826,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29345</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1763,50 +1891,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29345</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
         <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>93</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1824,50 +1956,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29345</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1881,50 +2017,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29345</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1938,50 +2078,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29345</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1999,50 +2143,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29345</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2056,50 +2204,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29345</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2119,50 +2271,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29345</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2182,50 +2338,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29345</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2249,41 +2409,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29345</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2312,41 +2476,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29345</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2375,50 +2543,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29345</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2442,50 +2614,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29345</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2509,50 +2685,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29345</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2576,50 +2756,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29345</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2635,50 +2819,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29345</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2698,50 +2886,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29345</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2761,50 +2953,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29345</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2828,50 +3024,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29345</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2895,50 +3095,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29345</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2962,50 +3166,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29345</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3029,41 +3237,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29345</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -3082,50 +3294,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29345</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3149,41 +3365,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29345</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -3212,41 +3432,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29345</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3273,7 +3497,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
